--- a/论文初稿/007_计划进度.xlsx
+++ b/论文初稿/007_计划进度.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sichuan-university\论文初稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC37543-886B-4466-A5F7-EC606B2B406F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F49805-727C-41DB-8A77-B1D614078F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -814,6 +815,36 @@
   </si>
   <si>
     <t>查重修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原始图像</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高斯滤波图像</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>σ为1的高斯卷积模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,7 +853,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -885,7 +916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -893,11 +924,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -908,7 +1034,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -917,7 +1043,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -925,6 +1051,46 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1265,7 +1431,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="57" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1477,4 +1643,454 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794D29E7-9878-41B8-9416-C4C071132292}">
+  <dimension ref="A3:T15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="9" width="3.625" style="10" customWidth="1"/>
+    <col min="10" max="12" width="6.625" style="10" customWidth="1"/>
+    <col min="13" max="20" width="3.625" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="N3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14">
+        <v>84</v>
+      </c>
+      <c r="D4" s="14">
+        <v>96</v>
+      </c>
+      <c r="E4" s="14">
+        <v>58</v>
+      </c>
+      <c r="F4" s="14">
+        <v>48</v>
+      </c>
+      <c r="G4" s="14">
+        <v>95</v>
+      </c>
+      <c r="H4" s="15">
+        <v>52</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="N4" s="13">
+        <v>65</v>
+      </c>
+      <c r="O4" s="14">
+        <v>84</v>
+      </c>
+      <c r="P4" s="14">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>58</v>
+      </c>
+      <c r="R4" s="14">
+        <v>48</v>
+      </c>
+      <c r="S4" s="14">
+        <v>95</v>
+      </c>
+      <c r="T4" s="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="16">
+        <v>66</v>
+      </c>
+      <c r="C5" s="17">
+        <v>85</v>
+      </c>
+      <c r="D5" s="17">
+        <v>97</v>
+      </c>
+      <c r="E5" s="17">
+        <v>59</v>
+      </c>
+      <c r="F5" s="17">
+        <v>49</v>
+      </c>
+      <c r="G5" s="17">
+        <v>96</v>
+      </c>
+      <c r="H5" s="18">
+        <v>53</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="N5" s="16">
+        <v>66</v>
+      </c>
+      <c r="O5" s="17">
+        <v>85</v>
+      </c>
+      <c r="P5" s="17">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>59</v>
+      </c>
+      <c r="R5" s="17">
+        <v>49</v>
+      </c>
+      <c r="S5" s="17">
+        <v>96</v>
+      </c>
+      <c r="T5" s="18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16">
+        <v>67</v>
+      </c>
+      <c r="C6" s="17">
+        <v>86</v>
+      </c>
+      <c r="D6" s="17">
+        <v>98</v>
+      </c>
+      <c r="E6" s="17">
+        <v>60</v>
+      </c>
+      <c r="F6" s="17">
+        <v>50</v>
+      </c>
+      <c r="G6" s="17">
+        <v>97</v>
+      </c>
+      <c r="H6" s="18">
+        <v>54</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="N6" s="16">
+        <v>67</v>
+      </c>
+      <c r="O6" s="17">
+        <v>86</v>
+      </c>
+      <c r="P6" s="17">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>60</v>
+      </c>
+      <c r="R6" s="17">
+        <v>50</v>
+      </c>
+      <c r="S6" s="17">
+        <v>97</v>
+      </c>
+      <c r="T6" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16">
+        <v>68</v>
+      </c>
+      <c r="C7" s="17">
+        <v>87</v>
+      </c>
+      <c r="D7" s="17">
+        <v>99</v>
+      </c>
+      <c r="E7" s="17">
+        <v>61</v>
+      </c>
+      <c r="F7" s="17">
+        <v>51</v>
+      </c>
+      <c r="G7" s="17">
+        <v>98</v>
+      </c>
+      <c r="H7" s="18">
+        <v>55</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="N7" s="16">
+        <v>68</v>
+      </c>
+      <c r="O7" s="17">
+        <v>87</v>
+      </c>
+      <c r="P7" s="17">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>D6*J12+E6*K12+F6*L12+D7*J13+E7*K13+F7*L13+D8*J14+E8*K14+F8*L14</f>
+        <v>68.671999999999997</v>
+      </c>
+      <c r="R7" s="17">
+        <v>51</v>
+      </c>
+      <c r="S7" s="17">
+        <v>98</v>
+      </c>
+      <c r="T7" s="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="16">
+        <v>69</v>
+      </c>
+      <c r="C8" s="17">
+        <v>88</v>
+      </c>
+      <c r="D8" s="17">
+        <v>100</v>
+      </c>
+      <c r="E8" s="17">
+        <v>62</v>
+      </c>
+      <c r="F8" s="17">
+        <v>52</v>
+      </c>
+      <c r="G8" s="17">
+        <v>99</v>
+      </c>
+      <c r="H8" s="18">
+        <v>56</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="N8" s="16">
+        <v>69</v>
+      </c>
+      <c r="O8" s="17">
+        <v>88</v>
+      </c>
+      <c r="P8" s="17">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>62</v>
+      </c>
+      <c r="R8" s="17">
+        <v>52</v>
+      </c>
+      <c r="S8" s="17">
+        <v>99</v>
+      </c>
+      <c r="T8" s="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="16">
+        <v>70</v>
+      </c>
+      <c r="C9" s="17">
+        <v>89</v>
+      </c>
+      <c r="D9" s="17">
+        <v>101</v>
+      </c>
+      <c r="E9" s="17">
+        <v>63</v>
+      </c>
+      <c r="F9" s="17">
+        <v>53</v>
+      </c>
+      <c r="G9" s="17">
+        <v>100</v>
+      </c>
+      <c r="H9" s="18">
+        <v>57</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="N9" s="16">
+        <v>70</v>
+      </c>
+      <c r="O9" s="17">
+        <v>89</v>
+      </c>
+      <c r="P9" s="17">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>63</v>
+      </c>
+      <c r="R9" s="17">
+        <v>53</v>
+      </c>
+      <c r="S9" s="17">
+        <v>100</v>
+      </c>
+      <c r="T9" s="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="19">
+        <v>71</v>
+      </c>
+      <c r="C10" s="20">
+        <v>90</v>
+      </c>
+      <c r="D10" s="20">
+        <v>102</v>
+      </c>
+      <c r="E10" s="20">
+        <v>64</v>
+      </c>
+      <c r="F10" s="20">
+        <v>54</v>
+      </c>
+      <c r="G10" s="20">
+        <v>101</v>
+      </c>
+      <c r="H10" s="21">
+        <v>58</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="N10" s="19">
+        <v>71</v>
+      </c>
+      <c r="O10" s="20">
+        <v>90</v>
+      </c>
+      <c r="P10" s="20">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>64</v>
+      </c>
+      <c r="R10" s="20">
+        <v>54</v>
+      </c>
+      <c r="S10" s="20">
+        <v>101</v>
+      </c>
+      <c r="T10" s="21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0.124</v>
+      </c>
+      <c r="L12" s="22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="22">
+        <v>0.124</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0.124</v>
+      </c>
+      <c r="L14" s="22">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="J15:L15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/论文初稿/007_计划进度.xlsx
+++ b/论文初稿/007_计划进度.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sichuan-university\论文初稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F49805-727C-41DB-8A77-B1D614078F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3210C6-9AB0-49ED-9563-35A57F765A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-150" yWindow="6675" windowWidth="23730" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1023,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1053,9 +1054,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,9 +1087,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1107,6 +1109,1519 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAB27A8-8CFD-4392-A7EE-55E93EA6BCAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="742950"/>
+          <a:ext cx="4181475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC4170F-02FB-4E29-8A9E-C7B0CACADE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="1981200"/>
+          <a:ext cx="3067050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2771B5-E80F-4C5E-BD7A-D273639D34F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="742950"/>
+          <a:ext cx="19050" cy="3981450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A511086F-C1CE-48B7-8283-C7222CBDE4E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2066925" y="1981200"/>
+          <a:ext cx="9525" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="459357" cy="601383"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="文本框 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76129873-7AE5-451E-A75A-52CA4E86381A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5214937" y="381000"/>
+              <a:ext cx="459357" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒖</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="文本框 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76129873-7AE5-451E-A75A-52CA4E86381A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5214937" y="381000"/>
+              <a:ext cx="459357" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒖</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="436081" cy="601383"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="文本框 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF1D761-6C5B-4174-A0CE-FE52A2DE8A57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="733425" y="4562475"/>
+              <a:ext cx="436081" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒗</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="文本框 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF1D761-6C5B-4174-A0CE-FE52A2DE8A57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="733425" y="4562475"/>
+              <a:ext cx="436081" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒗</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="424026" cy="601383"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="文本框 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F320B81-BAEF-4033-8751-581618A3EA27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5210175" y="1609725"/>
+              <a:ext cx="424026" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="00B050"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒙</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="文本框 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F320B81-BAEF-4033-8751-581618A3EA27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5210175" y="1609725"/>
+              <a:ext cx="424026" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒙</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="434799" cy="601383"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="文本框 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65F2508-BE27-4225-80FD-07AAA8DD4857}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1838325" y="4543425"/>
+              <a:ext cx="434799" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="00B050"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒚</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="文本框 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65F2508-BE27-4225-80FD-07AAA8DD4857}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1838325" y="4543425"/>
+              <a:ext cx="434799" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒚</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="424026" cy="601383"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="文本框 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0381A353-4E98-4054-841C-DC7A9B0623D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1714500" y="1495425"/>
+              <a:ext cx="424026" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="00B050"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒐</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="文本框 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0381A353-4E98-4054-841C-DC7A9B0623D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1714500" y="1495425"/>
+              <a:ext cx="424026" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒐</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="424026" cy="601383"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="文本框 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94465D9-3AC1-4D70-AD48-A263CBA29912}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="600075" y="247650"/>
+              <a:ext cx="424026" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝒐</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="文本框 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94465D9-3AC1-4D70-AD48-A263CBA29912}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="600075" y="247650"/>
+              <a:ext cx="424026" cy="601383"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="4000" b="1" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝒐</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0581AC-DF63-4D7A-9FDA-BAA9BDA4FD4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="742950"/>
+          <a:ext cx="4819650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9289A5D2-0799-4731-8A77-95C624FE3449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="2238375"/>
+          <a:ext cx="4819650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDB9F07-B3C2-44C1-BCFC-037467917B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7172325" y="733425"/>
+          <a:ext cx="1" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D970D0A0-4F03-4876-B362-E1D0450B7223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="1485900"/>
+          <a:ext cx="7143750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="椭圆 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D3FABC-D0A9-49D4-8A8E-5B268A0A8AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11782425" y="742950"/>
+          <a:ext cx="352425" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84DD030-FE17-46E5-B7B4-C6BBF36267AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11958638" y="742950"/>
+          <a:ext cx="2309812" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>681038</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF56F646-0D79-4585-B360-574FF4690F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11958638" y="981075"/>
+          <a:ext cx="2309812" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46770389-7767-42AA-B55D-D99CF1B7340B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14268450" y="762000"/>
+          <a:ext cx="0" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1375,7 +2890,7 @@
   <dimension ref="B3:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794D29E7-9878-41B8-9416-C4C071132292}">
   <dimension ref="A3:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,416 +3178,416 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="N3" s="11" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="N3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12">
         <v>65</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>84</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>96</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>58</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>48</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>95</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>52</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="N4" s="13">
+      <c r="I4" s="11"/>
+      <c r="N4" s="12">
         <v>65</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <v>84</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <v>96</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="13">
         <v>58</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="13">
         <v>48</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="13">
         <v>95</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="14">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="16">
+      <c r="A5" s="11"/>
+      <c r="B5" s="15">
         <v>66</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>85</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>97</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>59</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>49</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>96</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>53</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="N5" s="16">
+      <c r="I5" s="11"/>
+      <c r="N5" s="15">
         <v>66</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <v>85</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>97</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <v>59</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="16">
         <v>49</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="16">
         <v>96</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="17">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16">
+      <c r="A6" s="11"/>
+      <c r="B6" s="15">
         <v>67</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>86</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>98</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>60</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>50</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>97</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>54</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="N6" s="16">
+      <c r="I6" s="11"/>
+      <c r="N6" s="15">
         <v>67</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="16">
         <v>86</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="16">
         <v>98</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <v>60</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <v>50</v>
       </c>
-      <c r="S6" s="17">
+      <c r="S6" s="16">
         <v>97</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="16">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15">
         <v>68</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>87</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>99</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>61</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>51</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>98</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>55</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="N7" s="16">
+      <c r="I7" s="11"/>
+      <c r="N7" s="15">
         <v>68</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <v>87</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>99</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <f>D6*J12+E6*K12+F6*L12+D7*J13+E7*K13+F7*L13+D8*J14+E8*K14+F8*L14</f>
         <v>68.671999999999997</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>51</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="16">
         <v>98</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="17">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="16">
+      <c r="A8" s="11"/>
+      <c r="B8" s="15">
         <v>69</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>88</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>100</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>62</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>52</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>99</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>56</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="N8" s="16">
+      <c r="I8" s="11"/>
+      <c r="N8" s="15">
         <v>69</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="16">
         <v>88</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="16">
         <v>100</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>62</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <v>52</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <v>99</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="17">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="16">
+      <c r="A9" s="11"/>
+      <c r="B9" s="15">
         <v>70</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>89</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>101</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>63</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>53</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>100</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>57</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="N9" s="16">
+      <c r="I9" s="11"/>
+      <c r="N9" s="15">
         <v>70</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="16">
         <v>89</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="16">
         <v>101</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <v>63</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="16">
         <v>53</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="16">
         <v>100</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="17">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="19">
+      <c r="A10" s="11"/>
+      <c r="B10" s="18">
         <v>71</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>90</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>102</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>64</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>54</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>101</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>58</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="N10" s="19">
+      <c r="I10" s="11"/>
+      <c r="N10" s="18">
         <v>71</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="19">
         <v>90</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="19">
         <v>102</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="19">
         <v>64</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="19">
         <v>54</v>
       </c>
-      <c r="S10" s="20">
+      <c r="S10" s="19">
         <v>101</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="20">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="22">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>0.124</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="22">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="21">
         <v>0.124</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>0.20399999999999999</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="21">
         <v>0.124</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="22">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>0.124</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -2093,4 +3608,286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED18D6E-987F-45F7-B673-499061A9BC1B}">
+  <dimension ref="B1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="17" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/论文初稿/007_计划进度.xlsx
+++ b/论文初稿/007_计划进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sichuan-university\论文初稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3210C6-9AB0-49ED-9563-35A57F765A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7294F71-2CA0-44D6-9289-A37CE7B2DBDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="6675" windowWidth="23730" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1087,13 +1087,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1345,8 +1345,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="459357" cy="601383"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="文本框 9">
@@ -1388,6 +1388,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1414,7 +1415,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="文本框 9">
@@ -1484,8 +1485,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="436081" cy="601383"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="文本框 11">
@@ -1527,6 +1528,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1553,7 +1555,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="文本框 11">
@@ -1623,8 +1625,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="424026" cy="601383"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="文本框 12">
@@ -1666,6 +1668,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1692,7 +1695,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="文本框 12">
@@ -1762,8 +1765,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="434799" cy="601383"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="文本框 13">
@@ -1805,6 +1808,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1831,7 +1835,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="文本框 13">
@@ -1901,8 +1905,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="424026" cy="601383"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="文本框 14">
@@ -1944,6 +1948,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1970,7 +1975,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="文本框 14">
@@ -2040,8 +2045,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="424026" cy="601383"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="文本框 15">
@@ -2083,6 +2088,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2109,7 +2115,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="文本框 15">
@@ -2889,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,7 +3070,7 @@
       <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -3178,24 +3184,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="N3" s="22" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="N3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -3592,11 +3598,11 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3612,10 +3618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED18D6E-987F-45F7-B673-499061A9BC1B}">
-  <dimension ref="B1:P36"/>
+  <dimension ref="C1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3627,244 +3633,244 @@
     <row r="2" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/论文初稿/007_计划进度.xlsx
+++ b/论文初稿/007_计划进度.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sichuan-university\论文初稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7294F71-2CA0-44D6-9289-A37CE7B2DBDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B787432A-B00D-4441-A94C-42359821C5D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <r>
       <rPr>
@@ -847,6 +848,25 @@
   <si>
     <t>σ为1的高斯卷积模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -856,7 +876,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,6 +900,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -917,7 +943,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1020,11 +1046,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1093,6 +1239,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2895,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -3896,4 +4069,75 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6396F3F-98C8-4D4E-921A-BEE54ADAD719}">
+  <dimension ref="G11:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="29"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H14" s="29"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H15" s="29"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="H16" s="29"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H12:J17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>